--- a/data/label_mapping_new.xlsx
+++ b/data/label_mapping_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="578">
   <si>
     <t>C-reactive protein, mg/dL</t>
   </si>
@@ -2096,7 +2096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2294,7 +2296,9 @@
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
